--- a/全民中檢/output_files/static/給老師看的.xlsx
+++ b/全民中檢/output_files/static/給老師看的.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
   <si>
     <t>題號</t>
   </si>
@@ -49,36 +49,33 @@
     <t>形音義</t>
   </si>
   <si>
-    <t>4.33 題／人</t>
+    <t>2.5 題／人</t>
   </si>
   <si>
     <t>詞語使用</t>
   </si>
   <si>
-    <t>1.5 題／人</t>
+    <t>3.0 題／人</t>
   </si>
   <si>
     <t>成語運用</t>
   </si>
   <si>
+    <t>4.0 題／人</t>
+  </si>
+  <si>
     <t>修辭技巧</t>
   </si>
   <si>
-    <t>2.0 題／人</t>
+    <t>3.75 題／人</t>
   </si>
   <si>
     <t>國學常識</t>
   </si>
   <si>
-    <t>6.5 題／人</t>
-  </si>
-  <si>
     <t>閱讀素養</t>
   </si>
   <si>
-    <t>5.17 題／人</t>
-  </si>
-  <si>
     <t>本梯次成績前２％分數</t>
   </si>
   <si>
@@ -94,46 +91,34 @@
     <t>低標（成績後５０％平均分數）</t>
   </si>
   <si>
-    <t>3/6</t>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>0/4</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>2/4</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>5/6</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6/6</t>
+    <t>4/4</t>
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>1/6</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>4/6</t>
-  </si>
-  <si>
-    <t>66%</t>
   </si>
 </sst>
 </file>
@@ -506,10 +491,10 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
         <v>19</v>
@@ -523,19 +508,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -544,22 +529,22 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -570,19 +555,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -591,16 +576,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -611,19 +596,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -634,19 +619,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -657,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -671,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -685,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -699,10 +684,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -710,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -727,10 +712,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -741,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -755,10 +740,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -769,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -780,13 +765,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -794,13 +779,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -808,13 +793,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -825,10 +810,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -839,10 +824,10 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -853,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -867,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -878,13 +863,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -892,13 +877,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -906,13 +891,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -920,13 +905,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -934,13 +919,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -948,13 +933,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -962,13 +947,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -976,13 +961,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -990,13 +975,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1004,13 +989,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1018,13 +1003,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1032,13 +1017,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1046,13 +1031,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1060,13 +1045,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1074,13 +1059,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1088,13 +1073,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1102,13 +1087,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
         <v>30</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1116,13 +1101,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1130,13 +1115,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1144,13 +1129,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1161,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1175,10 +1160,10 @@
         <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1189,10 +1174,10 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1203,10 +1188,10 @@
         <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1217,10 +1202,10 @@
         <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1231,10 +1216,10 @@
         <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1245,10 +1230,10 @@
         <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1259,10 +1244,10 @@
         <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1273,10 +1258,10 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1287,10 +1272,10 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/全民中檢/output_files/static/給老師看的.xlsx
+++ b/全民中檢/output_files/static/給老師看的.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>題號</t>
   </si>
@@ -49,33 +49,39 @@
     <t>形音義</t>
   </si>
   <si>
-    <t>2.5 題／人</t>
+    <t>5.76 題／人</t>
   </si>
   <si>
     <t>詞語使用</t>
   </si>
   <si>
-    <t>3.0 題／人</t>
+    <t>2.47 題／人</t>
   </si>
   <si>
     <t>成語運用</t>
   </si>
   <si>
-    <t>4.0 題／人</t>
+    <t>3.06 題／人</t>
   </si>
   <si>
     <t>修辭技巧</t>
   </si>
   <si>
-    <t>3.75 題／人</t>
+    <t>2.0 題／人</t>
   </si>
   <si>
     <t>國學常識</t>
   </si>
   <si>
+    <t>7.29 題／人</t>
+  </si>
+  <si>
     <t>閱讀素養</t>
   </si>
   <si>
+    <t>7.12 題／人</t>
+  </si>
+  <si>
     <t>本梯次成績前２％分數</t>
   </si>
   <si>
@@ -91,34 +97,88 @@
     <t>低標（成績後５０％平均分數）</t>
   </si>
   <si>
-    <t>1/4</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>0/4</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>2/4</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>4/4</t>
+    <t>7/17</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>15/17</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>10/17</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>13/17</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>6/17</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>5/17</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>4/17</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>14/17</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>16/17</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>12/17</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>17/17</t>
   </si>
   <si>
     <t>100%</t>
+  </si>
+  <si>
+    <t>9/17</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>8/17</t>
+  </si>
+  <si>
+    <t>47%</t>
   </si>
 </sst>
 </file>
@@ -497,7 +557,7 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -508,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -529,22 +589,22 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O2">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -555,19 +615,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>62</v>
+        <v>55.25</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -582,10 +642,10 @@
         <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -596,19 +656,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>58.5</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -619,19 +679,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -642,10 +702,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -670,10 +730,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -684,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -695,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -712,10 +772,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -740,10 +800,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -754,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -765,13 +825,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -779,13 +839,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -793,13 +853,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -810,10 +870,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -824,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -838,10 +898,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -852,10 +912,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -863,13 +923,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -877,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -891,13 +951,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -905,13 +965,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -922,10 +982,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -933,13 +993,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -947,13 +1007,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -961,13 +1021,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -975,13 +1035,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -989,7 +1049,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1003,7 +1063,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -1017,13 +1077,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1034,10 +1094,10 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1076,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1087,13 +1147,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1101,13 +1161,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1115,13 +1175,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1129,13 +1189,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1143,7 +1203,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -1157,13 +1217,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1171,13 +1231,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1185,13 +1245,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1199,13 +1259,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1213,13 +1273,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1227,13 +1287,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1241,13 +1301,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1255,13 +1315,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1269,13 +1329,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/全民中檢/output_files/static/給老師看的.xlsx
+++ b/全民中檢/output_files/static/給老師看的.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
   <si>
     <t>題號</t>
   </si>
@@ -49,37 +49,34 @@
     <t>形音義</t>
   </si>
   <si>
-    <t>5.76 題／人</t>
+    <t>3.57 題／人</t>
   </si>
   <si>
     <t>詞語使用</t>
   </si>
   <si>
-    <t>2.47 題／人</t>
+    <t>2.71 題／人</t>
   </si>
   <si>
     <t>成語運用</t>
   </si>
   <si>
-    <t>3.06 題／人</t>
+    <t>1.14 題／人</t>
   </si>
   <si>
     <t>修辭技巧</t>
   </si>
   <si>
-    <t>2.0 題／人</t>
-  </si>
-  <si>
     <t>國學常識</t>
   </si>
   <si>
-    <t>7.29 題／人</t>
+    <t>2.29 題／人</t>
   </si>
   <si>
     <t>閱讀素養</t>
   </si>
   <si>
-    <t>7.12 題／人</t>
+    <t>2.86 題／人</t>
   </si>
   <si>
     <t>本梯次成績前２％分數</t>
@@ -97,88 +94,52 @@
     <t>低標（成績後５０％平均分數）</t>
   </si>
   <si>
-    <t>7/17</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>15/17</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>10/17</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>13/17</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>6/17</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>5/17</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>4/17</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>14/17</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>11/17</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>16/17</t>
-  </si>
-  <si>
-    <t>94%</t>
-  </si>
-  <si>
-    <t>12/17</t>
-  </si>
-  <si>
-    <t>70%</t>
-  </si>
-  <si>
-    <t>17/17</t>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>7/7</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>9/17</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>8/17</t>
-  </si>
-  <si>
-    <t>47%</t>
+    <t>1/7</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>0/7</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3/7</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>2/7</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>6/7</t>
+  </si>
+  <si>
+    <t>85%</t>
   </si>
 </sst>
 </file>
@@ -554,10 +515,10 @@
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -568,19 +529,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -589,22 +550,22 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -615,19 +576,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>55.25</v>
+        <v>85.33333333333333</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -639,13 +600,13 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -656,19 +617,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>44.59</v>
+        <v>69.43000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -679,19 +640,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>39.5</v>
+        <v>76.66666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -702,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -716,10 +677,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -730,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -744,10 +705,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -755,13 +716,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -772,10 +733,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -786,10 +747,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -800,10 +761,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -814,10 +775,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -825,13 +786,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -839,13 +800,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -853,13 +814,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -870,10 +831,10 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -884,10 +845,10 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -898,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -912,10 +873,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -923,13 +884,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -937,13 +898,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -951,13 +912,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -965,13 +926,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
         <v>37</v>
-      </c>
-      <c r="D25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -982,10 +943,10 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -993,13 +954,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
         <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1007,13 +968,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1021,13 +982,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1035,13 +996,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1049,13 +1010,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1063,13 +1024,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1077,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1091,13 +1052,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1105,13 +1066,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1119,13 +1080,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
         <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1133,13 +1094,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1147,13 +1108,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1161,13 +1122,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1175,13 +1136,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
         <v>35</v>
-      </c>
-      <c r="D40" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1189,13 +1150,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1203,13 +1164,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1217,13 +1178,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1231,13 +1192,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1245,13 +1206,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1259,13 +1220,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1273,13 +1234,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1287,13 +1248,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1301,13 +1262,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1315,13 +1276,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1329,13 +1290,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
         <v>39</v>
-      </c>
-      <c r="D51" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
